--- a/cloudflare-workers-vless2sub.xlsx
+++ b/cloudflare-workers-vless2sub.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>IP 地址</t>
   </si>
@@ -81,6 +81,36 @@
   </si>
   <si>
     <t>104.18.60.196</t>
+  </si>
+  <si>
+    <t>104.18.170.221</t>
+  </si>
+  <si>
+    <t>104.18.159.184</t>
+  </si>
+  <si>
+    <t>104.18.164.78</t>
+  </si>
+  <si>
+    <t>104.18.85.59</t>
+  </si>
+  <si>
+    <t>104.18.158.233</t>
+  </si>
+  <si>
+    <t>104.18.81.190</t>
+  </si>
+  <si>
+    <t>104.18.152.77</t>
+  </si>
+  <si>
+    <t>104.18.149.254</t>
+  </si>
+  <si>
+    <t>104.18.168.174</t>
+  </si>
+  <si>
+    <t>172.67.72.218</t>
   </si>
 </sst>
 </file>
@@ -732,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +785,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,10 +1315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1338,7 +1371,7 @@
       </c>
       <c r="H2" t="str">
         <f ca="1">A2&amp;"#"&amp;$H$1&amp;"_"&amp;F2&amp;"_"&amp;TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>104.17.180.183#联通大昌_62.35_2024-08-05</v>
+        <v>104.17.180.183#联通大昌_62.35_2024-08-16</v>
       </c>
     </row>
     <row r="3" ht="13.85" spans="1:8">
@@ -1362,7 +1395,7 @@
       </c>
       <c r="H3" t="str">
         <f ca="1" t="shared" ref="H3:H11" si="0">A3&amp;"#"&amp;$H$1&amp;"_"&amp;F3&amp;"_"&amp;TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>172.67.79.117#联通大昌_44.14_2024-08-05</v>
+        <v>172.67.79.117#联通大昌_44.14_2024-08-16</v>
       </c>
     </row>
     <row r="4" ht="13.85" spans="1:8">
@@ -1386,7 +1419,7 @@
       </c>
       <c r="H4" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>172.67.74.62#联通大昌_40.28_2024-08-05</v>
+        <v>172.67.74.62#联通大昌_40.28_2024-08-16</v>
       </c>
     </row>
     <row r="5" ht="13.85" spans="1:8">
@@ -1410,7 +1443,7 @@
       </c>
       <c r="H5" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>172.67.67.33#联通大昌_40.22_2024-08-05</v>
+        <v>172.67.67.33#联通大昌_40.22_2024-08-16</v>
       </c>
     </row>
     <row r="6" ht="13.85" spans="1:8">
@@ -1434,7 +1467,7 @@
       </c>
       <c r="H6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>104.26.9.248#联通大昌_32.8_2024-08-05</v>
+        <v>104.26.9.248#联通大昌_32.8_2024-08-16</v>
       </c>
     </row>
     <row r="7" ht="13.85" spans="1:8">
@@ -1458,7 +1491,7 @@
       </c>
       <c r="H7" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>162.159.134.245#联通大昌_30.95_2024-08-05</v>
+        <v>162.159.134.245#联通大昌_30.95_2024-08-16</v>
       </c>
     </row>
     <row r="8" ht="13.85" spans="1:8">
@@ -1482,7 +1515,7 @@
       </c>
       <c r="H8" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>172.67.75.192#联通大昌_18.72_2024-08-05</v>
+        <v>172.67.75.192#联通大昌_18.72_2024-08-16</v>
       </c>
     </row>
     <row r="9" ht="13.85" spans="1:8">
@@ -1506,7 +1539,7 @@
       </c>
       <c r="H9" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>172.67.71.4#联通大昌_14.39_2024-08-05</v>
+        <v>172.67.71.4#联通大昌_14.39_2024-08-16</v>
       </c>
     </row>
     <row r="10" ht="13.85" spans="1:8">
@@ -1530,7 +1563,7 @@
       </c>
       <c r="H10" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>172.67.69.254#联通大昌_10.39_2024-08-05</v>
+        <v>172.67.69.254#联通大昌_10.39_2024-08-16</v>
       </c>
     </row>
     <row r="11" ht="13.85" spans="1:8">
@@ -1554,7 +1587,7 @@
       </c>
       <c r="H11" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>172.65.232.81#联通大昌_0_2024-08-05</v>
+        <v>172.65.232.81#联通大昌_0_2024-08-16</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1578,7 +1611,247 @@
       </c>
       <c r="H12" t="str">
         <f ca="1">A12&amp;"#"&amp;$H$1&amp;"_"&amp;F12&amp;"_"&amp;TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>104.18.60.196#联通大昌_65.16_2024-08-05</v>
+        <v>104.18.60.196#联通大昌_65.16_2024-08-16</v>
+      </c>
+    </row>
+    <row r="13" ht="13.85" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>328.73</v>
+      </c>
+      <c r="F13" s="8">
+        <v>70.88</v>
+      </c>
+      <c r="H13" t="str">
+        <f ca="1" t="shared" ref="H13:H22" si="1">A13&amp;"#"&amp;$H$1&amp;"_"&amp;F13&amp;"_"&amp;TEXT(TODAY(),"yyyy-mm-dd")</f>
+        <v>104.18.170.221#联通大昌_70.88_2024-08-16</v>
+      </c>
+    </row>
+    <row r="14" ht="13.85" spans="1:8">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>324.66</v>
+      </c>
+      <c r="F14" s="8">
+        <v>68.59</v>
+      </c>
+      <c r="H14" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>104.18.159.184#联通大昌_68.59_2024-08-16</v>
+      </c>
+    </row>
+    <row r="15" ht="13.85" spans="1:8">
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>322.69</v>
+      </c>
+      <c r="F15" s="8">
+        <v>22.12</v>
+      </c>
+      <c r="H15" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>104.18.164.78#联通大昌_22.12_2024-08-16</v>
+      </c>
+    </row>
+    <row r="16" ht="13.85" spans="1:8">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>321.74</v>
+      </c>
+      <c r="F16" s="8">
+        <v>20.83</v>
+      </c>
+      <c r="H16" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>104.18.85.59#联通大昌_20.83_2024-08-16</v>
+      </c>
+    </row>
+    <row r="17" ht="13.85" spans="1:8">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8">
+        <v>4</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>324.66</v>
+      </c>
+      <c r="F17" s="8">
+        <v>19.96</v>
+      </c>
+      <c r="H17" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>104.18.158.233#联通大昌_19.96_2024-08-16</v>
+      </c>
+    </row>
+    <row r="18" ht="13.85" spans="1:8">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>328.97</v>
+      </c>
+      <c r="F18" s="8">
+        <v>11.02</v>
+      </c>
+      <c r="H18" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>104.18.81.190#联通大昌_11.02_2024-08-16</v>
+      </c>
+    </row>
+    <row r="19" ht="13.85" spans="1:8">
+      <c r="A19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>326.17</v>
+      </c>
+      <c r="F19" s="8">
+        <v>10.82</v>
+      </c>
+      <c r="H19" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>104.18.152.77#联通大昌_10.82_2024-08-16</v>
+      </c>
+    </row>
+    <row r="20" ht="13.85" spans="1:8">
+      <c r="A20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4</v>
+      </c>
+      <c r="C20" s="8">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>329.12</v>
+      </c>
+      <c r="F20" s="8">
+        <v>10.65</v>
+      </c>
+      <c r="H20" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>104.18.149.254#联通大昌_10.65_2024-08-16</v>
+      </c>
+    </row>
+    <row r="21" ht="13.85" spans="1:8">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>325.38</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6.02</v>
+      </c>
+      <c r="H21" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>104.18.168.174#联通大昌_6.02_2024-08-16</v>
+      </c>
+    </row>
+    <row r="22" ht="13.85" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>329.58</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="H22" t="str">
+        <f ca="1" t="shared" si="1"/>
+        <v>172.67.72.218#联通大昌_0.77_2024-08-16</v>
       </c>
     </row>
   </sheetData>

--- a/cloudflare-workers-vless2sub.xlsx
+++ b/cloudflare-workers-vless2sub.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8175"/>
+    <workbookView windowWidth="18352" windowHeight="8175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>IP 地址</t>
   </si>
@@ -47,12 +47,33 @@
     <t>下载速度 (MB/s)</t>
   </si>
   <si>
-    <t>联通大昌</t>
+    <t>省份</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>测速时间</t>
+  </si>
+  <si>
+    <t>节点名</t>
   </si>
   <si>
     <t>104.17.180.183</t>
   </si>
   <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>联通</t>
+  </si>
+  <si>
+    <t>大昌</t>
+  </si>
+  <si>
     <t>172.67.79.117</t>
   </si>
   <si>
@@ -77,9 +98,6 @@
     <t>172.67.69.254</t>
   </si>
   <si>
-    <t>172.65.232.81</t>
-  </si>
-  <si>
     <t>104.18.60.196</t>
   </si>
   <si>
@@ -107,23 +125,21 @@
     <t>104.18.149.254</t>
   </si>
   <si>
-    <t>104.18.168.174</t>
-  </si>
-  <si>
-    <t>172.67.72.218</t>
+    <t>172.67.74.227</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +149,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="云峰寒蝉体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -140,31 +168,31 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FFF97583"/>
-      <name val="Consolas"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFB392F0"/>
-      <name val="Consolas"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF6A737D"/>
-      <name val="Consolas"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF9ECBFF"/>
-      <name val="Consolas"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFFAB70"/>
-      <name val="Consolas"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -632,137 +660,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,24 +798,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1315,543 +1364,739 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+      <selection activeCell="K2" sqref="K2:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="17.6637168141593" customWidth="1"/>
-    <col min="8" max="8" width="50.9203539823009" customWidth="1"/>
+    <col min="1" max="1" width="15.2566371681416" style="1" customWidth="1"/>
+    <col min="2" max="4" width="6.17699115044248" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.03539823008849" style="1" customWidth="1"/>
+    <col min="7" max="9" width="5.38938053097345" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7522123893805" style="3" customWidth="1"/>
+    <col min="11" max="11" width="35.6814159292035" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="26.25" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" ht="13.85" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="2" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="11">
         <v>77.88</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="11">
         <v>62.35</v>
       </c>
-      <c r="H2" t="str">
-        <f ca="1">A2&amp;"#"&amp;$H$1&amp;"_"&amp;F2&amp;"_"&amp;TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>104.17.180.183#联通大昌_62.35_2024-08-16</v>
+      <c r="G2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K2" s="10" t="str">
+        <f>A2&amp;"#"&amp;G2&amp;""&amp;H2&amp;"-"&amp;I2&amp;"-"&amp;ROUND(F2,1)</f>
+        <v>104.17.180.183#重庆联通-大昌-62.4</v>
       </c>
     </row>
-    <row r="3" ht="13.85" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
+    <row r="3" spans="1:11">
+      <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="11">
         <v>131.37</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="11">
         <v>44.14</v>
       </c>
-      <c r="H3" t="str">
-        <f ca="1" t="shared" ref="H3:H11" si="0">A3&amp;"#"&amp;$H$1&amp;"_"&amp;F3&amp;"_"&amp;TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>172.67.79.117#联通大昌_44.14_2024-08-16</v>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K3" s="10" t="str">
+        <f t="shared" ref="K3:K20" si="0">A3&amp;"#"&amp;G3&amp;""&amp;H3&amp;"-"&amp;I3&amp;"-"&amp;ROUND(F3,1)</f>
+        <v>172.67.79.117#重庆联通-大昌-44.1</v>
       </c>
     </row>
-    <row r="4" ht="13.85" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="11">
         <v>130.79</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="11">
         <v>40.28</v>
       </c>
-      <c r="H4" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v>172.67.74.62#联通大昌_40.28_2024-08-16</v>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>172.67.74.62#重庆联通-大昌-40.3</v>
       </c>
     </row>
-    <row r="5" ht="13.85" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
+    <row r="5" spans="1:11">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="11">
         <v>132.46</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="11">
         <v>40.22</v>
       </c>
-      <c r="H5" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v>172.67.67.33#联通大昌_40.22_2024-08-16</v>
+      <c r="G5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>172.67.67.33#重庆联通-大昌-40.2</v>
       </c>
     </row>
-    <row r="6" ht="13.85" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="11">
         <v>131.56</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="11">
         <v>32.8</v>
       </c>
-      <c r="H6" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v>104.26.9.248#联通大昌_32.8_2024-08-16</v>
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.26.9.248#重庆联通-大昌-32.8</v>
       </c>
     </row>
-    <row r="7" ht="13.85" spans="1:8">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>131.98</v>
+      </c>
+      <c r="F7" s="11">
+        <v>30.95</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="H7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>162.159.134.245#重庆联通-大昌-31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>131.98</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30.95</v>
-      </c>
-      <c r="H7" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v>162.159.134.245#联通大昌_30.95_2024-08-16</v>
+      <c r="E8" s="11">
+        <v>130.3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>18.72</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>172.67.75.192#重庆联通-大昌-18.7</v>
       </c>
     </row>
-    <row r="8" ht="13.85" spans="1:8">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>131.45</v>
+      </c>
+      <c r="F9" s="11">
+        <v>14.39</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="I9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>172.67.71.4#重庆联通-大昌-14.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="11">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>130.3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>18.72</v>
-      </c>
-      <c r="H8" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v>172.67.75.192#联通大昌_18.72_2024-08-16</v>
+      <c r="E10" s="11">
+        <v>130.67</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10.39</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>172.67.69.254#重庆联通-大昌-10.4</v>
       </c>
     </row>
-    <row r="9" ht="13.85" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13">
+        <v>4</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>191.99</v>
+      </c>
+      <c r="F11" s="13">
+        <v>65.16</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="J11" s="3">
+        <v>45502</v>
+      </c>
+      <c r="K11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.18.60.196#重庆联通-大昌-65.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>131.45</v>
-      </c>
-      <c r="F9" s="1">
-        <v>14.39</v>
-      </c>
-      <c r="H9" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v>172.67.71.4#联通大昌_14.39_2024-08-16</v>
+      <c r="E12" s="11">
+        <v>328.73</v>
+      </c>
+      <c r="F12" s="11">
+        <v>70.88</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3">
+        <v>45520</v>
+      </c>
+      <c r="K12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.18.170.221#重庆联通-大昌-70.9</v>
       </c>
     </row>
-    <row r="10" ht="13.85" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
+    <row r="13" spans="1:11">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="11">
+        <v>4</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4</v>
+      </c>
+      <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
-        <v>130.67</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10.39</v>
-      </c>
-      <c r="H10" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v>172.67.69.254#联通大昌_10.39_2024-08-16</v>
+      <c r="E13" s="11">
+        <v>324.66</v>
+      </c>
+      <c r="F13" s="11">
+        <v>68.59</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3">
+        <v>45520</v>
+      </c>
+      <c r="K13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.18.159.184#重庆联通-大昌-68.6</v>
       </c>
     </row>
-    <row r="11" ht="13.85" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
+    <row r="14" spans="1:11">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
-        <v>131.97</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E14" s="11">
+        <v>322.69</v>
+      </c>
+      <c r="F14" s="11">
+        <v>22.12</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="3">
+        <v>45520</v>
+      </c>
+      <c r="K14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.18.164.78#重庆联通-大昌-22.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="H11" t="str">
-        <f ca="1" t="shared" si="0"/>
-        <v>172.65.232.81#联通大昌_0_2024-08-16</v>
+      <c r="E15" s="11">
+        <v>321.74</v>
+      </c>
+      <c r="F15" s="11">
+        <v>20.83</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3">
+        <v>45520</v>
+      </c>
+      <c r="K15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.18.85.59#重庆联通-大昌-20.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
+    <row r="16" spans="1:11">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="11">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11">
+        <v>4</v>
+      </c>
+      <c r="D16" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
-        <v>191.99</v>
-      </c>
-      <c r="F12" s="7">
-        <v>65.16</v>
-      </c>
-      <c r="H12" t="str">
-        <f ca="1">A12&amp;"#"&amp;$H$1&amp;"_"&amp;F12&amp;"_"&amp;TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>104.18.60.196#联通大昌_65.16_2024-08-16</v>
+      <c r="E16" s="11">
+        <v>324.66</v>
+      </c>
+      <c r="F16" s="11">
+        <v>19.96</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="3">
+        <v>45520</v>
+      </c>
+      <c r="K16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.18.158.233#重庆联通-大昌-20</v>
       </c>
     </row>
-    <row r="13" ht="13.85" spans="1:8">
-      <c r="A13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8">
+    <row r="17" spans="1:11">
+      <c r="A17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="11">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="8">
-        <v>328.73</v>
-      </c>
-      <c r="F13" s="8">
-        <v>70.88</v>
-      </c>
-      <c r="H13" t="str">
-        <f ca="1" t="shared" ref="H13:H22" si="1">A13&amp;"#"&amp;$H$1&amp;"_"&amp;F13&amp;"_"&amp;TEXT(TODAY(),"yyyy-mm-dd")</f>
-        <v>104.18.170.221#联通大昌_70.88_2024-08-16</v>
+      <c r="E17" s="11">
+        <v>328.97</v>
+      </c>
+      <c r="F17" s="11">
+        <v>11.02</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3">
+        <v>45520</v>
+      </c>
+      <c r="K17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.18.81.190#重庆联通-大昌-11</v>
       </c>
     </row>
-    <row r="14" ht="13.85" spans="1:8">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8">
+    <row r="18" spans="1:11">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="8">
-        <v>324.66</v>
-      </c>
-      <c r="F14" s="8">
-        <v>68.59</v>
-      </c>
-      <c r="H14" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>104.18.159.184#联通大昌_68.59_2024-08-16</v>
+      <c r="E18" s="11">
+        <v>326.17</v>
+      </c>
+      <c r="F18" s="11">
+        <v>10.82</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="3">
+        <v>45520</v>
+      </c>
+      <c r="K18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.18.152.77#重庆联通-大昌-10.8</v>
       </c>
     </row>
-    <row r="15" ht="13.85" spans="1:8">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8">
-        <v>4</v>
-      </c>
-      <c r="C15" s="8">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8">
+    <row r="19" spans="1:11">
+      <c r="A19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="11">
+        <v>4</v>
+      </c>
+      <c r="C19" s="11">
+        <v>4</v>
+      </c>
+      <c r="D19" s="11">
         <v>0</v>
       </c>
-      <c r="E15" s="8">
-        <v>322.69</v>
-      </c>
-      <c r="F15" s="8">
-        <v>22.12</v>
-      </c>
-      <c r="H15" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>104.18.164.78#联通大昌_22.12_2024-08-16</v>
+      <c r="E19" s="11">
+        <v>329.12</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10.65</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="3">
+        <v>45520</v>
+      </c>
+      <c r="K19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>104.18.149.254#重庆联通-大昌-10.7</v>
       </c>
     </row>
-    <row r="16" ht="13.85" spans="1:8">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="8">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="D16" s="8">
+    <row r="20" spans="1:11">
+      <c r="A20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="15">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15">
+        <v>4</v>
+      </c>
+      <c r="D20" s="15">
         <v>0</v>
       </c>
-      <c r="E16" s="8">
-        <v>321.74</v>
-      </c>
-      <c r="F16" s="8">
-        <v>20.83</v>
-      </c>
-      <c r="H16" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>104.18.85.59#联通大昌_20.83_2024-08-16</v>
-      </c>
-    </row>
-    <row r="17" ht="13.85" spans="1:8">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8">
-        <v>4</v>
-      </c>
-      <c r="C17" s="8">
-        <v>4</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>324.66</v>
-      </c>
-      <c r="F17" s="8">
-        <v>19.96</v>
-      </c>
-      <c r="H17" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>104.18.158.233#联通大昌_19.96_2024-08-16</v>
-      </c>
-    </row>
-    <row r="18" ht="13.85" spans="1:8">
-      <c r="A18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="8">
-        <v>4</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>328.97</v>
-      </c>
-      <c r="F18" s="8">
-        <v>11.02</v>
-      </c>
-      <c r="H18" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>104.18.81.190#联通大昌_11.02_2024-08-16</v>
-      </c>
-    </row>
-    <row r="19" ht="13.85" spans="1:8">
-      <c r="A19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8">
-        <v>4</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>326.17</v>
-      </c>
-      <c r="F19" s="8">
-        <v>10.82</v>
-      </c>
-      <c r="H19" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>104.18.152.77#联通大昌_10.82_2024-08-16</v>
-      </c>
-    </row>
-    <row r="20" ht="13.85" spans="1:8">
-      <c r="A20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="8">
-        <v>4</v>
-      </c>
-      <c r="C20" s="8">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>329.12</v>
-      </c>
-      <c r="F20" s="8">
-        <v>10.65</v>
-      </c>
-      <c r="H20" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>104.18.149.254#联通大昌_10.65_2024-08-16</v>
-      </c>
-    </row>
-    <row r="21" ht="13.85" spans="1:8">
-      <c r="A21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="8">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8">
-        <v>4</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>325.38</v>
-      </c>
-      <c r="F21" s="8">
-        <v>6.02</v>
-      </c>
-      <c r="H21" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>104.18.168.174#联通大昌_6.02_2024-08-16</v>
-      </c>
-    </row>
-    <row r="22" ht="13.85" spans="1:8">
-      <c r="A22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="8">
-        <v>4</v>
-      </c>
-      <c r="C22" s="8">
-        <v>4</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>329.58</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="H22" t="str">
-        <f ca="1" t="shared" si="1"/>
-        <v>172.67.72.218#联通大昌_0.77_2024-08-16</v>
+      <c r="E20" s="15">
+        <v>98.99</v>
+      </c>
+      <c r="F20" s="15">
+        <v>20.1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="3">
+        <v>45520</v>
+      </c>
+      <c r="K20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>172.67.74.227#重庆联通-大昌-20.1</v>
       </c>
     </row>
   </sheetData>

--- a/cloudflare-workers-vless2sub.xlsx
+++ b/cloudflare-workers-vless2sub.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="39">
   <si>
     <t>IP 地址</t>
   </si>
@@ -74,6 +74,9 @@
     <t>大昌</t>
   </si>
   <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
     <t>172.67.79.117</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t>104.18.170.221</t>
   </si>
   <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
     <t>104.18.159.184</t>
   </si>
   <si>
@@ -126,18 +132,29 @@
   </si>
   <si>
     <t>172.67.74.227</t>
+  </si>
+  <si>
+    <t>162.159.134.181</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>172.67.75.148</t>
+  </si>
+  <si>
+    <t>104.26.10.172</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -790,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,7 +817,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -821,22 +838,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1364,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="17.25"/>
@@ -1377,7 +1385,7 @@
     <col min="5" max="6" width="8.03539823008849" style="1" customWidth="1"/>
     <col min="7" max="9" width="5.38938053097345" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.7522123893805" style="3" customWidth="1"/>
-    <col min="11" max="11" width="35.6814159292035" style="2" customWidth="1"/>
+    <col min="11" max="11" width="49.2654867256637" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" spans="1:11">
@@ -1399,704 +1407,812 @@
       <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11">
-        <v>4</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="B2" s="10">
+        <v>4</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>77.88</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>62.35</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K2" s="10" t="str">
-        <f>A2&amp;"#"&amp;G2&amp;""&amp;H2&amp;"-"&amp;I2&amp;"-"&amp;ROUND(F2,1)</f>
-        <v>104.17.180.183#重庆联通-大昌-62.4</v>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>A2&amp;"#"&amp;G2&amp;""&amp;H2&amp;"-"&amp;I2&amp;"-"&amp;ROUND(F2,1)&amp;"-"&amp;J2</f>
+        <v>104.17.180.183#重庆联通-大昌-62.4-2024-07-29</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>131.37</v>
+      </c>
+      <c r="F3" s="10">
+        <v>44.14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11">
-        <v>4</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>131.37</v>
-      </c>
-      <c r="F3" s="11">
-        <v>44.14</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K3" s="10" t="str">
-        <f t="shared" ref="K3:K20" si="0">A3&amp;"#"&amp;G3&amp;""&amp;H3&amp;"-"&amp;I3&amp;"-"&amp;ROUND(F3,1)</f>
-        <v>172.67.79.117#重庆联通-大昌-44.1</v>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K23" si="0">A3&amp;"#"&amp;G3&amp;""&amp;H3&amp;"-"&amp;I3&amp;"-"&amp;ROUND(F3,1)&amp;"-"&amp;J3</f>
+        <v>172.67.79.117#重庆联通-大昌-44.1-2024-07-29</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="11">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>130.79</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>40.28</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K4" s="10" t="str">
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>172.67.74.62#重庆联通-大昌-40.3</v>
+        <v>172.67.74.62#重庆联通-大昌-40.3-2024-07-29</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="11">
-        <v>4</v>
-      </c>
-      <c r="C5" s="11">
-        <v>4</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>132.46</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>40.22</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K5" s="10" t="str">
+      <c r="J5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>172.67.67.33#重庆联通-大昌-40.2</v>
+        <v>172.67.67.33#重庆联通-大昌-40.2-2024-07-29</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>131.56</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>32.8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K6" s="10" t="str">
+      <c r="J6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.26.9.248#重庆联通-大昌-32.8</v>
+        <v>104.26.9.248#重庆联通-大昌-32.8-2024-07-29</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="11">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>131.98</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>30.95</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K7" s="10" t="str">
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>162.159.134.245#重庆联通-大昌-31</v>
+        <v>162.159.134.245#重庆联通-大昌-31-2024-07-29</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>130.3</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>18.72</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K8" s="10" t="str">
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>172.67.75.192#重庆联通-大昌-18.7</v>
+        <v>172.67.75.192#重庆联通-大昌-18.7-2024-07-29</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="11">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11">
-        <v>4</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>131.45</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>14.39</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K9" s="10" t="str">
+      <c r="J9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>172.67.71.4#重庆联通-大昌-14.4</v>
+        <v>172.67.71.4#重庆联通-大昌-14.4-2024-07-29</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="11">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>130.67</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>10.39</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K10" s="10" t="str">
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>172.67.69.254#重庆联通-大昌-10.4</v>
+        <v>172.67.69.254#重庆联通-大昌-10.4-2024-07-29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="13">
-        <v>4</v>
-      </c>
-      <c r="C11" s="13">
-        <v>4</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>191.99</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <v>65.16</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="3">
-        <v>45502</v>
-      </c>
-      <c r="K11" s="10" t="str">
+      <c r="J11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.18.60.196#重庆联通-大昌-65.2</v>
+        <v>104.18.60.196#重庆联通-大昌-65.2-2024-07-29</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="11">
-        <v>4</v>
-      </c>
-      <c r="C12" s="11">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="A12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>328.73</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>70.88</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="3">
-        <v>45520</v>
-      </c>
-      <c r="K12" s="10" t="str">
+      <c r="J12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.18.170.221#重庆联通-大昌-70.9</v>
+        <v>104.18.170.221#重庆联通-大昌-70.9-2024-08-16</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="11">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11">
-        <v>4</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10">
+        <v>4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>324.66</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>68.59</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="3">
-        <v>45520</v>
-      </c>
-      <c r="K13" s="10" t="str">
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.18.159.184#重庆联通-大昌-68.6</v>
+        <v>104.18.159.184#重庆联通-大昌-68.6-2024-08-16</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>322.69</v>
+      </c>
+      <c r="F14" s="10">
+        <v>22.12</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11">
-        <v>4</v>
-      </c>
-      <c r="C14" s="11">
-        <v>4</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="11">
-        <v>322.69</v>
-      </c>
-      <c r="F14" s="11">
-        <v>22.12</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="3">
-        <v>45520</v>
-      </c>
-      <c r="K14" s="10" t="str">
+      <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.18.164.78#重庆联通-大昌-22.1</v>
+        <v>104.18.164.78#重庆联通-大昌-22.1-2024-08-16</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11">
-        <v>4</v>
-      </c>
-      <c r="C15" s="11">
-        <v>4</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10">
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>321.74</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>20.83</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="3">
-        <v>45520</v>
-      </c>
-      <c r="K15" s="10" t="str">
+      <c r="J15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.18.85.59#重庆联通-大昌-20.8</v>
+        <v>104.18.85.59#重庆联通-大昌-20.8-2024-08-16</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="11">
-        <v>4</v>
-      </c>
-      <c r="C16" s="11">
-        <v>4</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="A16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>324.66</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>19.96</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="3">
-        <v>45520</v>
-      </c>
-      <c r="K16" s="10" t="str">
+      <c r="J16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.18.158.233#重庆联通-大昌-20</v>
+        <v>104.18.158.233#重庆联通-大昌-20-2024-08-16</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="11">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11">
-        <v>4</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="A17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="10">
+        <v>4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>328.97</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>11.02</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="3">
-        <v>45520</v>
-      </c>
-      <c r="K17" s="10" t="str">
+      <c r="J17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.18.81.190#重庆联通-大昌-11</v>
+        <v>104.18.81.190#重庆联通-大昌-11-2024-08-16</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="11">
-        <v>4</v>
-      </c>
-      <c r="C18" s="11">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="A18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="10">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>4</v>
+      </c>
+      <c r="D18" s="10">
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>326.17</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>10.82</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="3">
-        <v>45520</v>
-      </c>
-      <c r="K18" s="10" t="str">
+      <c r="J18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.18.152.77#重庆联通-大昌-10.8</v>
+        <v>104.18.152.77#重庆联通-大昌-10.8-2024-08-16</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="11">
-        <v>4</v>
-      </c>
-      <c r="C19" s="11">
-        <v>4</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="A19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="10">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10">
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>329.12</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>10.65</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="3">
-        <v>45520</v>
-      </c>
-      <c r="K19" s="10" t="str">
+      <c r="J19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>104.18.149.254#重庆联通-大昌-10.7</v>
+        <v>104.18.149.254#重庆联通-大昌-10.7-2024-08-16</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="15">
-        <v>4</v>
-      </c>
-      <c r="C20" s="15">
-        <v>4</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="A20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4</v>
+      </c>
+      <c r="D20" s="11">
         <v>0</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="11">
         <v>98.99</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="11">
         <v>20.1</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="3">
-        <v>45520</v>
-      </c>
-      <c r="K20" s="10" t="str">
+      <c r="J20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>172.67.74.227#重庆联通-大昌-20.1</v>
+        <v>172.67.74.227#重庆联通-大昌-20.1-2024-08-16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="12">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12">
+        <v>4</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>100.25</v>
+      </c>
+      <c r="F21" s="12">
+        <v>19.39</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>162.159.134.181#重庆联通-大昌-19.4-2024-09-02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="12">
+        <v>4</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>99.78</v>
+      </c>
+      <c r="F22" s="12">
+        <v>14.84</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>172.67.75.148#重庆联通-大昌-14.8-2024-09-02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="12">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12">
+        <v>4</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>98.52</v>
+      </c>
+      <c r="F23" s="12">
+        <v>13.75</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>104.26.10.172#重庆联通-大昌-13.8-2024-09-02</v>
       </c>
     </row>
   </sheetData>
